--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016488.91778236</v>
+        <v>-1019169.780845769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>348.1671427403932</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>288.691985309222</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.598899347663</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>198.6661500890919</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>114.7053989184414</v>
       </c>
       <c r="D4" t="n">
-        <v>127.29055800175</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>267.7132903626184</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>137.188540705288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>63.29994393451716</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5.58720826576084</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>60.96952253011843</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>250.7942834133525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>108.8491865528541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>96.64238696988244</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.294096136282298</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>72.26558381699921</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>68.57766702465653</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>256.578372221375</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>53.07327741456097</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>109.8058856274581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652685</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.9307691340568</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="C2" t="n">
-        <v>402.9307691340568</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>1114.90269554958</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>823.2946295806687</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.967242048755</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.967242048755</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>1905.904354705184</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W2" t="n">
-        <v>1553.13569943507</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1179.66994117399</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y2" t="n">
-        <v>789.5306091981786</v>
+        <v>1114.90269554958</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.5623317901023</v>
+        <v>1387.807075285522</v>
       </c>
       <c r="C4" t="n">
-        <v>474.6261488621955</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2307.65484019427</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>2018.237670157309</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>1790.248119259292</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>1569.455540115762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2299.06583738593</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2045.48477665011</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2045.48477665011</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1692.716121379996</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1692.716121379996</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>458.7060632252733</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.0992174579893</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C7" t="n">
-        <v>263.0992174579893</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D7" t="n">
-        <v>263.0992174579893</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E7" t="n">
-        <v>115.1861238755962</v>
+        <v>477.6219901411313</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>330.7320426432209</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>162.7455779514995</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232069</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>672.7372331862464</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>444.747682288229</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.747682288229</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1243.5819619288</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1243.5819619288</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>832.5960571391929</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>416.8913068634818</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>112.832162861052</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X8" t="n">
-        <v>1246.899958573734</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.899958573734</v>
+        <v>1601.847660535551</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>790.776498401435</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1154.038517360655</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1541.3236459576</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.8867386045653</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>775.9505556766584</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>625.8339162643226</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>477.9208226819295</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.327782578335</v>
+        <v>989.7610553472321</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.327782578335</v>
+        <v>761.7715044492147</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.535203434805</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>869.9745311434734</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>701.0383482155665</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>550.9217088032308</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>550.9217088032308</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>404.0317613053204</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>236.8356620202003</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>95.12383086239845</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1789.822296052221</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.405126015261</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.415575117243</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.622995973713</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459605</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180536</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180536</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356605</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>304.7988649377501</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817748</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.97913291973</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537762002</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D31" t="n">
-        <v>666.7308394007268</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E31" t="n">
-        <v>518.8177458183337</v>
+        <v>547.5889719879178</v>
       </c>
       <c r="F31" t="n">
-        <v>371.9277983204233</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>204.7316990353033</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438403</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60.35797727397573</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>114.3555089013357</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>162.0073097921332</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>199.7516311504059</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>118.1840604324894</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.992034891141857</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631857025</v>
+        <v>79.97174018228321</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>213.9188905722449</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.5977558415268</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>96.94647126761231</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856639</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>29.94462611521595</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30.48882721876578</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1218039.227115157</v>
+        <v>1218039.227115158</v>
       </c>
     </row>
     <row r="6">
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
@@ -26332,22 +26332,22 @@
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660712</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472625</v>
+        <v>52108.58832472606</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731987</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,22 +26439,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982539</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982542</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982549</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090546.003446169</v>
+        <v>-1090906.086461887</v>
       </c>
       <c r="C6" t="n">
         <v>-21995.33023563761</v>
       </c>
       <c r="D6" t="n">
-        <v>-21995.33023563761</v>
+        <v>-21995.33023563758</v>
       </c>
       <c r="E6" t="n">
-        <v>-414938.6339526833</v>
+        <v>-414973.3718781194</v>
       </c>
       <c r="F6" t="n">
-        <v>92546.80767186238</v>
+        <v>92512.06974642671</v>
       </c>
       <c r="G6" t="n">
-        <v>92546.80767186247</v>
+        <v>92512.06974642679</v>
       </c>
       <c r="H6" t="n">
-        <v>92546.80767186247</v>
+        <v>92512.06974642721</v>
       </c>
       <c r="I6" t="n">
-        <v>92546.80767186226</v>
+        <v>92512.06974642677</v>
       </c>
       <c r="J6" t="n">
-        <v>-75058.37013812014</v>
+        <v>-75093.10806355598</v>
       </c>
       <c r="K6" t="n">
-        <v>92546.80767186241</v>
+        <v>92512.06974642698</v>
       </c>
       <c r="L6" t="n">
-        <v>66560.4369286986</v>
+        <v>66560.43692869853</v>
       </c>
       <c r="M6" t="n">
-        <v>-46619.13880659626</v>
+        <v>-46619.13880659666</v>
       </c>
       <c r="N6" t="n">
+        <v>85988.1549223304</v>
+      </c>
+      <c r="O6" t="n">
+        <v>85988.15492233004</v>
+      </c>
+      <c r="P6" t="n">
         <v>85988.15492233011</v>
-      </c>
-      <c r="O6" t="n">
-        <v>85988.1549223302</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85988.15492233005</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.515898880289797</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.94880342529098</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.5414221801864</v>
       </c>
       <c r="D4" t="n">
-        <v>21.32491501646237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>115.0205513008622</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>69.46964427494575</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>82.12110408841409</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>141.664300889368</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>4.740390142352034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>118.9368172651166</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.57186147007715</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,19 +28065,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>121.9422663822124</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28503,13 +28503,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575224</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7826592700988</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>364.035038024868</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>348.5948060356181</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>497.4319917882561</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>98.78558167418906</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191329</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
